--- a/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- No Man’s Land (WEB-CBRO)-USER.xlsx
+++ b/ReadingListInformation/CBRO/DC/Events/XLSXandCSV/[DC Comics] Batman- No Man’s Land (WEB-CBRO)-USER.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="235">
   <si>
     <t>SeriesName</t>
   </si>
@@ -49,6 +49,9 @@
     <t>CV Issue Number</t>
   </si>
   <si>
+    <t>CV Series Publisher</t>
+  </si>
+  <si>
     <t>CV Cover Image</t>
   </si>
   <si>
@@ -58,9 +61,6 @@
     <t>Days Between Issues</t>
   </si>
   <si>
-    <t>CV Series Publisher</t>
-  </si>
-  <si>
     <t>Azrael: Agent of the Bat</t>
   </si>
   <si>
@@ -109,6 +109,285 @@
     <t>Batman: No Man’s Land Secret Files &amp; Origins</t>
   </si>
   <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>560</t>
+  </si>
+  <si>
+    <t>727</t>
+  </si>
+  <si>
+    <t>561</t>
+  </si>
+  <si>
+    <t>728</t>
+  </si>
+  <si>
+    <t>562</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>730</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>564</t>
+  </si>
+  <si>
+    <t>731</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>565</t>
+  </si>
+  <si>
+    <t>732</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>733</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>566</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>567</t>
+  </si>
+  <si>
+    <t>734</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>568</t>
+  </si>
+  <si>
+    <t>735</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>569</t>
+  </si>
+  <si>
+    <t>736</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>570</t>
+  </si>
+  <si>
+    <t>737</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>738</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>572</t>
+  </si>
+  <si>
+    <t>739</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>573</t>
+  </si>
+  <si>
+    <t>740</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>574</t>
+  </si>
+  <si>
+    <t>741</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -136,271 +415,7 @@
     <t>Batman: No Man's Land Secret Files</t>
   </si>
   <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>727</t>
-  </si>
-  <si>
-    <t>561</t>
-  </si>
-  <si>
-    <t>728</t>
-  </si>
-  <si>
-    <t>562</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>730</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>564</t>
-  </si>
-  <si>
-    <t>731</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>565</t>
-  </si>
-  <si>
-    <t>732</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>733</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>566</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>567</t>
-  </si>
-  <si>
-    <t>734</t>
-  </si>
-  <si>
-    <t>nan</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>568</t>
-  </si>
-  <si>
-    <t>735</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>569</t>
-  </si>
-  <si>
-    <t>736</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>570</t>
-  </si>
-  <si>
-    <t>737</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>738</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>572</t>
-  </si>
-  <si>
-    <t>739</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>573</t>
-  </si>
-  <si>
-    <t>740</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>574</t>
-  </si>
-  <si>
-    <t>741</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>94</t>
+    <t>DC Comics</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -529,19 +544,19 @@
     <t>https://comicvine.gamespot.com/issue/4000-113208/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-45982/</t>
+    <t>https://comicvine.gamespot.com/robin-67-way-dark/4000-45982/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-45953/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-46023/</t>
-  </si>
-  <si>
-    <t>https://comicvine.gamespot.com/issue/4000-46070/</t>
-  </si>
-  <si>
-    <t>https://comicvine.gamespot.com/issue/4000-46116/</t>
+    <t>https://comicvine.gamespot.com/robin-68-war-beneath-the-streets-part-one-rats/4000-46023/</t>
+  </si>
+  <si>
+    <t>https://comicvine.gamespot.com/robin-69-war-beneath-the-streets-part-two-wolfling/4000-46070/</t>
+  </si>
+  <si>
+    <t>https://comicvine.gamespot.com/robin-70-war-beneath-the-streets-part-three-the-su/4000-46116/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-123250/</t>
@@ -652,16 +667,16 @@
     <t>https://comicvine.gamespot.com/issue/4000-46983/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-46164/</t>
-  </si>
-  <si>
-    <t>https://comicvine.gamespot.com/issue/4000-46225/</t>
+    <t>https://comicvine.gamespot.com/robin-71-the-lizard-king/4000-46164/</t>
+  </si>
+  <si>
+    <t>https://comicvine.gamespot.com/robin-72-last-stand-on-grand-ave/4000-46225/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/batman-day-of-judgment-1-day-of-judgment-original-/4000-183117/</t>
   </si>
   <si>
-    <t>https://comicvine.gamespot.com/issue/4000-46269/</t>
+    <t>https://comicvine.gamespot.com/robin-73-the-world-around-the-corner/4000-46269/</t>
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-238533/</t>
@@ -704,9 +719,6 @@
   </si>
   <si>
     <t>https://comicvine.gamespot.com/issue/4000-75589/</t>
-  </si>
-  <si>
-    <t>DC Comics</t>
   </si>
 </sst>
 </file>
@@ -733,7 +745,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -743,12 +755,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -780,7 +786,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -788,7 +794,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1146,17 +1151,17 @@
       <c r="C2" s="2">
         <v>1998</v>
       </c>
-      <c r="D2" s="2">
-        <v>47</v>
+      <c r="D2" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F2" s="3">
         <v>36130</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H2" s="2">
         <v>19721</v>
@@ -1171,19 +1176,19 @@
         <v>1998</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="O2" s="4">
+        <v>134</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="P2" s="4">
         <v>31</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1196,17 +1201,17 @@
       <c r="C3" s="2">
         <v>1998</v>
       </c>
-      <c r="D3" s="2">
-        <v>48</v>
+      <c r="D3" s="2" t="s">
+        <v>32</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F3" s="3">
         <v>36161</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H3" s="2">
         <v>19721</v>
@@ -1221,19 +1226,19 @@
         <v>1998</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="O3" s="4">
+        <v>134</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="P3" s="4">
         <v>31</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -1246,17 +1251,17 @@
       <c r="C4" s="2">
         <v>1998</v>
       </c>
-      <c r="D4" s="2">
-        <v>49</v>
+      <c r="D4" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F4" s="3">
         <v>36192</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H4" s="2">
         <v>19721</v>
@@ -1271,19 +1276,19 @@
         <v>1998</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="M4" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="O4" s="4">
-        <v>62</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="P4" s="4">
+        <v>-62</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -1296,17 +1301,17 @@
       <c r="C5" s="2">
         <v>1992</v>
       </c>
-      <c r="D5" s="2">
-        <v>80</v>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F5" s="3">
         <v>36130</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H5" s="2">
         <v>4724</v>
@@ -1315,25 +1320,25 @@
         <v>123229</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K5" s="2">
         <v>1992</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="O5" s="4">
+        <v>134</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="P5" s="4">
         <v>31</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -1346,17 +1351,17 @@
       <c r="C6" s="2">
         <v>1992</v>
       </c>
-      <c r="D6" s="2">
-        <v>81</v>
+      <c r="D6" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F6" s="3">
         <v>36161</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H6" s="2">
         <v>4724</v>
@@ -1365,25 +1370,25 @@
         <v>135892</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K6" s="2">
         <v>1992</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N6" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="O6" s="4">
+      <c r="O6" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="P6" s="4">
         <v>31</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -1396,17 +1401,17 @@
       <c r="C7" s="2">
         <v>1992</v>
       </c>
-      <c r="D7" s="2">
-        <v>82</v>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F7" s="3">
         <v>36192</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H7" s="2">
         <v>4724</v>
@@ -1415,25 +1420,25 @@
         <v>135893</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K7" s="2">
         <v>1992</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="O7" s="4">
-        <v>62</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="P7" s="4">
+        <v>-62</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -1446,17 +1451,17 @@
       <c r="C8" s="2">
         <v>1940</v>
       </c>
-      <c r="D8" s="2">
-        <v>560</v>
+      <c r="D8" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F8" s="3">
         <v>36130</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H8" s="2">
         <v>796</v>
@@ -1471,19 +1476,19 @@
         <v>1940</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="M8" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N8" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="O8" s="4">
+        <v>134</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="P8" s="4">
         <v>0</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -1496,17 +1501,17 @@
       <c r="C9" s="2">
         <v>1937</v>
       </c>
-      <c r="D9" s="2">
-        <v>727</v>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F9" s="3">
         <v>36130</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H9" s="2">
         <v>18058</v>
@@ -1521,19 +1526,19 @@
         <v>1937</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="M9" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N9" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="O9" s="4">
+        <v>134</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="P9" s="4">
         <v>31</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:16">
@@ -1546,17 +1551,17 @@
       <c r="C10" s="2">
         <v>1940</v>
       </c>
-      <c r="D10" s="2">
-        <v>561</v>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F10" s="3">
         <v>36161</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H10" s="2">
         <v>796</v>
@@ -1571,19 +1576,19 @@
         <v>1940</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="O10" s="4">
+        <v>134</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="P10" s="4">
         <v>0</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -1596,17 +1601,17 @@
       <c r="C11" s="2">
         <v>1937</v>
       </c>
-      <c r="D11" s="2">
-        <v>728</v>
+      <c r="D11" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F11" s="3">
         <v>36161</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H11" s="2">
         <v>18058</v>
@@ -1621,19 +1626,19 @@
         <v>1937</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="O11" s="4">
+        <v>134</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="P11" s="4">
         <v>31</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1646,17 +1651,17 @@
       <c r="C12" s="2">
         <v>1940</v>
       </c>
-      <c r="D12" s="2">
-        <v>562</v>
+      <c r="D12" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F12" s="3">
         <v>36192</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H12" s="2">
         <v>796</v>
@@ -1671,19 +1676,19 @@
         <v>1940</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="O12" s="4">
+        <v>134</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="P12" s="4">
         <v>0</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1696,17 +1701,17 @@
       <c r="C13" s="2">
         <v>1937</v>
       </c>
-      <c r="D13" s="2">
-        <v>729</v>
+      <c r="D13" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F13" s="3">
         <v>36192</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H13" s="2">
         <v>18058</v>
@@ -1721,19 +1726,19 @@
         <v>1937</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="O13" s="4">
+        <v>134</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="4">
         <v>28</v>
-      </c>
-      <c r="P13" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1746,17 +1751,17 @@
       <c r="C14" s="2">
         <v>1999</v>
       </c>
-      <c r="D14" s="2">
-        <v>1</v>
+      <c r="D14" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F14" s="3">
         <v>36220</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H14" s="2">
         <v>21890</v>
@@ -1765,25 +1770,25 @@
         <v>131936</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="K14" s="2">
         <v>1999</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="O14" s="4">
+        <v>134</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="P14" s="4">
         <v>0</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1796,17 +1801,17 @@
       <c r="C15" s="2">
         <v>1992</v>
       </c>
-      <c r="D15" s="2">
-        <v>83</v>
+      <c r="D15" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F15" s="3">
         <v>36220</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H15" s="2">
         <v>4724</v>
@@ -1815,25 +1820,25 @@
         <v>132053</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K15" s="2">
         <v>1992</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="O15" s="4">
+        <v>134</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="P15" s="4">
         <v>0</v>
-      </c>
-      <c r="P15" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1846,17 +1851,17 @@
       <c r="C16" s="2">
         <v>1940</v>
       </c>
-      <c r="D16" s="2">
-        <v>563</v>
+      <c r="D16" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F16" s="3">
         <v>36220</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H16" s="2">
         <v>796</v>
@@ -1871,19 +1876,19 @@
         <v>1940</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="O16" s="4">
+        <v>134</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="P16" s="4">
         <v>0</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1896,17 +1901,17 @@
       <c r="C17" s="2">
         <v>1937</v>
       </c>
-      <c r="D17" s="2">
-        <v>730</v>
+      <c r="D17" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F17" s="3">
         <v>36220</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H17" s="2">
         <v>18058</v>
@@ -1921,19 +1926,19 @@
         <v>1937</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="O17" s="4">
+        <v>134</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="P17" s="4">
         <v>0</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1946,17 +1951,17 @@
       <c r="C18" s="2">
         <v>1998</v>
       </c>
-      <c r="D18" s="2">
-        <v>50</v>
+      <c r="D18" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F18" s="3">
         <v>36220</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H18" s="2">
         <v>19721</v>
@@ -1971,19 +1976,19 @@
         <v>1998</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="O18" s="4">
+        <v>134</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" s="4">
         <v>31</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1996,17 +2001,17 @@
       <c r="C19" s="2">
         <v>1998</v>
       </c>
-      <c r="D19" s="2">
-        <v>51</v>
+      <c r="D19" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F19" s="3">
         <v>36251</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H19" s="2">
         <v>19721</v>
@@ -2021,19 +2026,19 @@
         <v>1998</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="O19" s="4">
+        <v>134</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="P19" s="4">
         <v>0</v>
-      </c>
-      <c r="P19" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -2046,17 +2051,17 @@
       <c r="C20" s="2">
         <v>1992</v>
       </c>
-      <c r="D20" s="2">
-        <v>116</v>
+      <c r="D20" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F20" s="3">
         <v>36251</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H20" s="2">
         <v>4720</v>
@@ -2065,25 +2070,25 @@
         <v>45780</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="K20" s="2">
         <v>1992</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="O20" s="4">
+        <v>134</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="4">
         <v>0</v>
-      </c>
-      <c r="P20" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -2096,17 +2101,17 @@
       <c r="C21" s="2">
         <v>1992</v>
       </c>
-      <c r="D21" s="2">
-        <v>84</v>
+      <c r="D21" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F21" s="3">
         <v>36251</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H21" s="2">
         <v>4724</v>
@@ -2115,25 +2120,25 @@
         <v>132055</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K21" s="2">
         <v>1992</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="O21" s="4">
+        <v>134</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="P21" s="4">
         <v>0</v>
-      </c>
-      <c r="P21" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -2146,17 +2151,17 @@
       <c r="C22" s="2">
         <v>1940</v>
       </c>
-      <c r="D22" s="2">
-        <v>564</v>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F22" s="3">
         <v>36251</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H22" s="2">
         <v>796</v>
@@ -2171,19 +2176,19 @@
         <v>1940</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="O22" s="4">
+        <v>134</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="4">
         <v>0</v>
-      </c>
-      <c r="P22" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -2196,17 +2201,17 @@
       <c r="C23" s="2">
         <v>1937</v>
       </c>
-      <c r="D23" s="2">
-        <v>731</v>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F23" s="3">
         <v>36251</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H23" s="2">
         <v>18058</v>
@@ -2221,19 +2226,19 @@
         <v>1937</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="O23" s="4">
+        <v>134</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="4">
         <v>30</v>
-      </c>
-      <c r="P23" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -2246,17 +2251,17 @@
       <c r="C24" s="2">
         <v>1992</v>
       </c>
-      <c r="D24" s="2">
-        <v>117</v>
+      <c r="D24" s="2" t="s">
+        <v>53</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F24" s="3">
         <v>36281</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H24" s="2">
         <v>4720</v>
@@ -2265,25 +2270,25 @@
         <v>45827</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="K24" s="2">
         <v>1992</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="O24" s="4">
+        <v>134</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="4">
         <v>0</v>
-      </c>
-      <c r="P24" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -2296,17 +2301,17 @@
       <c r="C25" s="2">
         <v>1992</v>
       </c>
-      <c r="D25" s="2">
-        <v>85</v>
+      <c r="D25" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F25" s="3">
         <v>36281</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H25" s="2">
         <v>4724</v>
@@ -2315,25 +2320,25 @@
         <v>132056</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K25" s="2">
         <v>1992</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="O25" s="4">
+        <v>134</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="P25" s="4">
         <v>0</v>
-      </c>
-      <c r="P25" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2346,17 +2351,17 @@
       <c r="C26" s="2">
         <v>1940</v>
       </c>
-      <c r="D26" s="2">
-        <v>565</v>
+      <c r="D26" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F26" s="3">
         <v>36281</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H26" s="2">
         <v>796</v>
@@ -2371,19 +2376,19 @@
         <v>1940</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="O26" s="4">
+        <v>134</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="P26" s="4">
         <v>0</v>
-      </c>
-      <c r="P26" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="27" spans="1:16">
@@ -2396,17 +2401,17 @@
       <c r="C27" s="2">
         <v>1937</v>
       </c>
-      <c r="D27" s="2">
-        <v>732</v>
+      <c r="D27" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F27" s="3">
         <v>36281</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H27" s="2">
         <v>18058</v>
@@ -2421,19 +2426,19 @@
         <v>1937</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="O27" s="4">
+        <v>134</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="P27" s="4">
         <v>31</v>
-      </c>
-      <c r="P27" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:16">
@@ -2446,17 +2451,17 @@
       <c r="C28" s="2">
         <v>1992</v>
       </c>
-      <c r="D28" s="2">
-        <v>118</v>
+      <c r="D28" s="2" t="s">
+        <v>57</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F28" s="3">
         <v>36312</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H28" s="2">
         <v>4720</v>
@@ -2465,25 +2470,25 @@
         <v>45872</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="K28" s="2">
         <v>1992</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="O28" s="4">
+        <v>134</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="P28" s="4">
         <v>0</v>
-      </c>
-      <c r="P28" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:16">
@@ -2496,17 +2501,17 @@
       <c r="C29" s="2">
         <v>1992</v>
       </c>
-      <c r="D29" s="2">
-        <v>86</v>
+      <c r="D29" s="2" t="s">
+        <v>58</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F29" s="3">
         <v>36312</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H29" s="2">
         <v>4724</v>
@@ -2515,25 +2520,25 @@
         <v>132057</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K29" s="2">
         <v>1992</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="M29" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N29" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="O29" s="4">
+        <v>134</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="P29" s="4">
         <v>0</v>
-      </c>
-      <c r="P29" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="30" spans="1:16">
@@ -2546,17 +2551,17 @@
       <c r="C30" s="2">
         <v>1937</v>
       </c>
-      <c r="D30" s="2">
-        <v>733</v>
+      <c r="D30" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F30" s="3">
         <v>36312</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H30" s="2">
         <v>18058</v>
@@ -2571,19 +2576,19 @@
         <v>1937</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="M30" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N30" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="O30" s="4">
-        <v>31</v>
-      </c>
-      <c r="P30" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="P30" s="4">
+        <v>-31</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2596,17 +2601,17 @@
       <c r="C31" s="2">
         <v>1998</v>
       </c>
-      <c r="D31" s="2">
-        <v>52</v>
+      <c r="D31" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F31" s="3">
         <v>36281</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H31" s="2">
         <v>19721</v>
@@ -2621,19 +2626,19 @@
         <v>1998</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="M31" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N31" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="O31" s="4">
+        <v>134</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="P31" s="4">
         <v>31</v>
-      </c>
-      <c r="P31" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="32" spans="1:16">
@@ -2646,17 +2651,17 @@
       <c r="C32" s="2">
         <v>1998</v>
       </c>
-      <c r="D32" s="2">
-        <v>53</v>
+      <c r="D32" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F32" s="3">
         <v>36312</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H32" s="2">
         <v>19721</v>
@@ -2671,19 +2676,19 @@
         <v>1998</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="M32" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N32" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="O32" s="4">
-        <v>61</v>
-      </c>
-      <c r="P32" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="P32" s="4">
+        <v>-61</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2696,17 +2701,17 @@
       <c r="C33" s="2">
         <v>1995</v>
       </c>
-      <c r="D33" s="2">
-        <v>16</v>
+      <c r="D33" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F33" s="3">
         <v>36251</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H33" s="2">
         <v>6598</v>
@@ -2715,25 +2720,25 @@
         <v>132054</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="K33" s="2">
         <v>1995</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="M33" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="O33" s="4">
+        <v>134</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="P33" s="4">
         <v>61</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2746,17 +2751,17 @@
       <c r="C34" s="2">
         <v>1940</v>
       </c>
-      <c r="D34" s="2">
-        <v>566</v>
+      <c r="D34" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F34" s="3">
         <v>36312</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H34" s="2">
         <v>796</v>
@@ -2771,19 +2776,19 @@
         <v>1940</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N34" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="O34" s="4">
+        <v>134</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="P34" s="4">
         <v>30</v>
-      </c>
-      <c r="P34" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2796,17 +2801,17 @@
       <c r="C35" s="2">
         <v>1998</v>
       </c>
-      <c r="D35" s="2">
-        <v>54</v>
+      <c r="D35" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F35" s="3">
         <v>36342</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H35" s="2">
         <v>19721</v>
@@ -2821,19 +2826,19 @@
         <v>1998</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="M35" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N35" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="O35" s="4">
+        <v>134</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="P35" s="4">
         <v>31</v>
-      </c>
-      <c r="P35" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2846,17 +2851,17 @@
       <c r="C36" s="2">
         <v>1998</v>
       </c>
-      <c r="D36" s="2">
-        <v>55</v>
+      <c r="D36" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F36" s="3">
         <v>36373</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H36" s="2">
         <v>19721</v>
@@ -2871,19 +2876,19 @@
         <v>1998</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="O36" s="4">
-        <v>31</v>
-      </c>
-      <c r="P36" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="P36" s="4">
+        <v>-31</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2896,17 +2901,17 @@
       <c r="C37" s="2">
         <v>1999</v>
       </c>
-      <c r="D37" s="2">
-        <v>1</v>
+      <c r="D37" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F37" s="3">
         <v>36342</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H37" s="2">
         <v>21891</v>
@@ -2915,25 +2920,25 @@
         <v>131873</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="K37" s="2">
         <v>1999</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N37" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="O37" s="4">
-        <v>30</v>
-      </c>
-      <c r="P37" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="P37" s="4">
+        <v>-30</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2946,17 +2951,17 @@
       <c r="C38" s="2">
         <v>1995</v>
       </c>
-      <c r="D38" s="2">
-        <v>17</v>
+      <c r="D38" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F38" s="3">
         <v>36312</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H38" s="2">
         <v>6598</v>
@@ -2965,25 +2970,25 @@
         <v>132177</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="K38" s="2">
         <v>1995</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="M38" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N38" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="O38" s="4">
+        <v>134</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="P38" s="4">
         <v>30</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2996,17 +3001,17 @@
       <c r="C39" s="2">
         <v>1992</v>
       </c>
-      <c r="D39" s="2">
-        <v>119</v>
+      <c r="D39" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F39" s="3">
         <v>36342</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H39" s="2">
         <v>4720</v>
@@ -3015,25 +3020,25 @@
         <v>45917</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="K39" s="2">
         <v>1992</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="M39" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N39" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="O39" s="4">
+        <v>134</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="P39" s="4">
         <v>0</v>
-      </c>
-      <c r="P39" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -3046,17 +3051,17 @@
       <c r="C40" s="2">
         <v>1992</v>
       </c>
-      <c r="D40" s="2">
-        <v>87</v>
+      <c r="D40" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F40" s="3">
         <v>36342</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H40" s="2">
         <v>4724</v>
@@ -3065,25 +3070,25 @@
         <v>119385</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K40" s="2">
         <v>1992</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="M40" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N40" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="O40" s="4">
+        <v>134</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="P40" s="4">
         <v>0</v>
-      </c>
-      <c r="P40" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -3096,17 +3101,17 @@
       <c r="C41" s="2">
         <v>1940</v>
       </c>
-      <c r="D41" s="2">
-        <v>567</v>
+      <c r="D41" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F41" s="3">
         <v>36342</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H41" s="2">
         <v>796</v>
@@ -3121,19 +3126,19 @@
         <v>1940</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="M41" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N41" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="O41" s="4">
+        <v>134</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="P41" s="4">
         <v>0</v>
-      </c>
-      <c r="P41" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -3146,17 +3151,17 @@
       <c r="C42" s="2">
         <v>1937</v>
       </c>
-      <c r="D42" s="2">
-        <v>734</v>
+      <c r="D42" s="2" t="s">
+        <v>70</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F42" s="3">
         <v>36342</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H42" s="2">
         <v>18058</v>
@@ -3171,19 +3176,19 @@
         <v>1937</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M42" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="O42" s="4">
+        <v>134</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="P42" s="4">
         <v>31</v>
-      </c>
-      <c r="P42" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -3196,17 +3201,17 @@
       <c r="C43" s="2">
         <v>1993</v>
       </c>
-      <c r="D43" s="2">
-        <v>67</v>
+      <c r="D43" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F43" s="3">
         <v>36373</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H43" s="2">
         <v>4975</v>
@@ -3221,19 +3226,19 @@
         <v>1993</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="M43" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N43" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="O43" s="4">
+        <v>134</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="P43" s="4">
         <v>0</v>
-      </c>
-      <c r="P43" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -3246,17 +3251,17 @@
       <c r="C44" s="2">
         <v>1992</v>
       </c>
-      <c r="D44" s="2">
-        <v>120</v>
+      <c r="D44" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F44" s="3">
         <v>36373</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H44" s="2">
         <v>4720</v>
@@ -3265,25 +3270,25 @@
         <v>45953</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="K44" s="2">
         <v>1992</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="M44" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="O44" s="4">
+        <v>134</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="P44" s="4">
         <v>31</v>
-      </c>
-      <c r="P44" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -3296,17 +3301,17 @@
       <c r="C45" s="2">
         <v>1993</v>
       </c>
-      <c r="D45" s="2">
-        <v>68</v>
+      <c r="D45" s="2" t="s">
+        <v>73</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F45" s="3">
         <v>36404</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H45" s="2">
         <v>4975</v>
@@ -3321,19 +3326,19 @@
         <v>1993</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M45" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N45" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="O45" s="4">
+        <v>134</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="P45" s="4">
         <v>30</v>
-      </c>
-      <c r="P45" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -3346,17 +3351,17 @@
       <c r="C46" s="2">
         <v>1993</v>
       </c>
-      <c r="D46" s="2">
-        <v>69</v>
+      <c r="D46" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F46" s="3">
         <v>36434</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H46" s="2">
         <v>4975</v>
@@ -3371,19 +3376,19 @@
         <v>1993</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="M46" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N46" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="O46" s="4">
+        <v>134</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="P46" s="4">
         <v>31</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -3396,17 +3401,17 @@
       <c r="C47" s="2">
         <v>1993</v>
       </c>
-      <c r="D47" s="2">
-        <v>70</v>
+      <c r="D47" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F47" s="3">
         <v>36465</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H47" s="2">
         <v>4975</v>
@@ -3421,19 +3426,19 @@
         <v>1993</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="M47" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N47" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="O47" s="4">
-        <v>61</v>
-      </c>
-      <c r="P47" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="P47" s="4">
+        <v>-61</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -3446,17 +3451,17 @@
       <c r="C48" s="2">
         <v>1998</v>
       </c>
-      <c r="D48" s="2">
-        <v>56</v>
+      <c r="D48" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F48" s="3">
         <v>36404</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H48" s="2">
         <v>19721</v>
@@ -3471,19 +3476,19 @@
         <v>1998</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="M48" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N48" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="O48" s="4">
+        <v>134</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P48" s="4">
         <v>30</v>
-      </c>
-      <c r="P48" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -3496,17 +3501,17 @@
       <c r="C49" s="2">
         <v>1998</v>
       </c>
-      <c r="D49" s="2">
-        <v>57</v>
+      <c r="D49" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F49" s="3">
         <v>36434</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H49" s="2">
         <v>19721</v>
@@ -3521,19 +3526,19 @@
         <v>1998</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M49" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="O49" s="4">
-        <v>61</v>
-      </c>
-      <c r="P49" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="P49" s="4">
+        <v>-61</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -3546,17 +3551,17 @@
       <c r="C50" s="2">
         <v>1992</v>
       </c>
-      <c r="D50" s="2">
-        <v>88</v>
+      <c r="D50" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F50" s="3">
         <v>36373</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H50" s="2">
         <v>4724</v>
@@ -3565,25 +3570,25 @@
         <v>75583</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K50" s="2">
         <v>1992</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M50" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="O50" s="4">
+        <v>134</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="P50" s="4">
         <v>0</v>
-      </c>
-      <c r="P50" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -3596,17 +3601,17 @@
       <c r="C51" s="2">
         <v>1940</v>
       </c>
-      <c r="D51" s="2">
-        <v>568</v>
+      <c r="D51" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F51" s="3">
         <v>36373</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H51" s="2">
         <v>796</v>
@@ -3621,19 +3626,19 @@
         <v>1940</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="M51" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N51" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="O51" s="4">
+        <v>134</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="P51" s="4">
         <v>0</v>
-      </c>
-      <c r="P51" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -3646,17 +3651,17 @@
       <c r="C52" s="2">
         <v>1937</v>
       </c>
-      <c r="D52" s="2">
-        <v>735</v>
+      <c r="D52" s="2" t="s">
+        <v>80</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F52" s="3">
         <v>36373</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H52" s="2">
         <v>18058</v>
@@ -3671,19 +3676,19 @@
         <v>1937</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="M52" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N52" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="O52" s="4">
+        <v>134</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="P52" s="4">
         <v>0</v>
-      </c>
-      <c r="P52" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -3696,17 +3701,17 @@
       <c r="C53" s="2">
         <v>1997</v>
       </c>
-      <c r="D53" s="2">
-        <v>32</v>
+      <c r="D53" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F53" s="3">
         <v>36373</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H53" s="2">
         <v>5957</v>
@@ -3721,19 +3726,19 @@
         <v>1997</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="M53" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N53" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="O53" s="4">
+        <v>134</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="P53" s="4">
         <v>121</v>
-      </c>
-      <c r="P53" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -3746,17 +3751,17 @@
       <c r="C54" s="2">
         <v>1998</v>
       </c>
-      <c r="D54" s="2">
-        <v>58</v>
+      <c r="D54" s="2" t="s">
+        <v>82</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F54" s="3">
         <v>36494</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H54" s="2">
         <v>19721</v>
@@ -3771,19 +3776,19 @@
         <v>1998</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="M54" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N54" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="O54" s="4">
-        <v>90</v>
-      </c>
-      <c r="P54" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="P54" s="4">
+        <v>-90</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -3796,17 +3801,17 @@
       <c r="C55" s="2">
         <v>1992</v>
       </c>
-      <c r="D55" s="2">
-        <v>121</v>
+      <c r="D55" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F55" s="3">
         <v>36404</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H55" s="2">
         <v>4720</v>
@@ -3815,25 +3820,25 @@
         <v>45997</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="K55" s="2">
         <v>1992</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M55" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="O55" s="4">
+        <v>134</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="P55" s="4">
         <v>60</v>
-      </c>
-      <c r="P55" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -3846,17 +3851,17 @@
       <c r="C56" s="2">
         <v>1999</v>
       </c>
-      <c r="D56" s="2">
-        <v>1</v>
+      <c r="D56" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F56" s="3">
         <v>36464</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H56" s="2">
         <v>20721</v>
@@ -3871,19 +3876,19 @@
         <v>1999</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M56" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="O56" s="4">
-        <v>60</v>
-      </c>
-      <c r="P56" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O56" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="P56" s="4">
+        <v>-60</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -3896,17 +3901,17 @@
       <c r="C57" s="2">
         <v>1996</v>
       </c>
-      <c r="D57" s="2">
-        <v>35</v>
+      <c r="D57" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F57" s="3">
         <v>36404</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H57" s="2">
         <v>5755</v>
@@ -3921,19 +3926,19 @@
         <v>1996</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="M57" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="O57" s="4">
-        <v>243</v>
-      </c>
-      <c r="P57" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O57" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="P57" s="4">
+        <v>-243</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -3946,17 +3951,17 @@
       <c r="C58" s="2">
         <v>1999</v>
       </c>
-      <c r="D58" s="2">
-        <v>1</v>
+      <c r="D58" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F58" s="3">
         <v>36161</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H58" s="2">
         <v>33367</v>
@@ -3965,25 +3970,25 @@
         <v>218617</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>38</v>
+        <v>131</v>
       </c>
       <c r="K58" s="2">
         <v>1999</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M58" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="O58" s="4">
+        <v>134</v>
+      </c>
+      <c r="O58" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="P58" s="4">
         <v>273</v>
-      </c>
-      <c r="P58" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="59" spans="1:16">
@@ -3996,17 +4001,17 @@
       <c r="C59" s="2">
         <v>1996</v>
       </c>
-      <c r="D59" s="2">
-        <v>36</v>
+      <c r="D59" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F59" s="3">
         <v>36434</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H59" s="2">
         <v>5755</v>
@@ -4021,19 +4026,19 @@
         <v>1996</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="O59" s="4">
+        <v>134</v>
+      </c>
+      <c r="O59" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="P59" s="4">
         <v>31</v>
-      </c>
-      <c r="P59" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="60" spans="1:16">
@@ -4046,17 +4051,17 @@
       <c r="C60" s="2">
         <v>1996</v>
       </c>
-      <c r="D60" s="2">
-        <v>37</v>
+      <c r="D60" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F60" s="3">
         <v>36465</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H60" s="2">
         <v>5755</v>
@@ -4071,19 +4076,19 @@
         <v>1996</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N60" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="O60" s="4">
-        <v>31</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="P60" s="4">
+        <v>-31</v>
       </c>
     </row>
     <row r="61" spans="1:16">
@@ -4096,17 +4101,17 @@
       <c r="C61" s="2">
         <v>1995</v>
       </c>
-      <c r="D61" s="2">
-        <v>18</v>
+      <c r="D61" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F61" s="3">
         <v>36434</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H61" s="2">
         <v>6598</v>
@@ -4115,25 +4120,25 @@
         <v>75543</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>36</v>
+        <v>129</v>
       </c>
       <c r="K61" s="2">
         <v>1995</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N61" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="O61" s="4">
-        <v>30</v>
-      </c>
-      <c r="P61" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O61" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="P61" s="4">
+        <v>-30</v>
       </c>
     </row>
     <row r="62" spans="1:16">
@@ -4146,17 +4151,17 @@
       <c r="C62" s="2">
         <v>1993</v>
       </c>
-      <c r="D62" s="2">
-        <v>72</v>
+      <c r="D62" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F62" s="3">
         <v>36404</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H62" s="2">
         <v>4955</v>
@@ -4171,19 +4176,19 @@
         <v>1993</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="O62" s="4">
+        <v>134</v>
+      </c>
+      <c r="O62" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="P62" s="4">
         <v>60</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="63" spans="1:16">
@@ -4196,17 +4201,17 @@
       <c r="C63" s="2">
         <v>1993</v>
       </c>
-      <c r="D63" s="2">
-        <v>73</v>
+      <c r="D63" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F63" s="3">
         <v>36464</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H63" s="2">
         <v>4955</v>
@@ -4221,19 +4226,19 @@
         <v>1993</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="O63" s="4">
+        <v>134</v>
+      </c>
+      <c r="O63" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P63" s="4">
         <v>30</v>
-      </c>
-      <c r="P63" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:16">
@@ -4246,17 +4251,17 @@
       <c r="C64" s="2">
         <v>1993</v>
       </c>
-      <c r="D64" s="2">
-        <v>74</v>
+      <c r="D64" s="2" t="s">
+        <v>90</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F64" s="3">
         <v>36494</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H64" s="2">
         <v>4955</v>
@@ -4271,19 +4276,19 @@
         <v>1993</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N64" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="O64" s="4">
+        <v>134</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="P64" s="4">
         <v>31</v>
-      </c>
-      <c r="P64" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="65" spans="1:16">
@@ -4296,17 +4301,17 @@
       <c r="C65" s="2">
         <v>1993</v>
       </c>
-      <c r="D65" s="2">
-        <v>75</v>
+      <c r="D65" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F65" s="3">
         <v>36525</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H65" s="2">
         <v>4955</v>
@@ -4321,19 +4326,19 @@
         <v>1993</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="O65" s="4">
-        <v>121</v>
-      </c>
-      <c r="P65" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O65" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="P65" s="4">
+        <v>-121</v>
       </c>
     </row>
     <row r="66" spans="1:16">
@@ -4346,17 +4351,17 @@
       <c r="C66" s="2">
         <v>1992</v>
       </c>
-      <c r="D66" s="2">
-        <v>89</v>
+      <c r="D66" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F66" s="3">
         <v>36404</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H66" s="2">
         <v>4724</v>
@@ -4365,25 +4370,25 @@
         <v>75584</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K66" s="2">
         <v>1992</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="M66" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N66" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="O66" s="4">
+        <v>134</v>
+      </c>
+      <c r="O66" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="P66" s="4">
         <v>0</v>
-      </c>
-      <c r="P66" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="67" spans="1:16">
@@ -4396,17 +4401,17 @@
       <c r="C67" s="2">
         <v>1940</v>
       </c>
-      <c r="D67" s="2">
-        <v>569</v>
+      <c r="D67" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F67" s="3">
         <v>36404</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H67" s="2">
         <v>796</v>
@@ -4421,19 +4426,19 @@
         <v>1940</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="M67" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N67" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="O67" s="4">
+        <v>134</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="P67" s="4">
         <v>0</v>
-      </c>
-      <c r="P67" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="68" spans="1:16">
@@ -4446,17 +4451,17 @@
       <c r="C68" s="2">
         <v>1937</v>
       </c>
-      <c r="D68" s="2">
-        <v>736</v>
+      <c r="D68" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F68" s="3">
         <v>36404</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H68" s="2">
         <v>18058</v>
@@ -4471,19 +4476,19 @@
         <v>1937</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="M68" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N68" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="O68" s="4">
+        <v>134</v>
+      </c>
+      <c r="O68" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="P68" s="4">
         <v>30</v>
-      </c>
-      <c r="P68" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="69" spans="1:16">
@@ -4496,17 +4501,17 @@
       <c r="C69" s="2">
         <v>1992</v>
       </c>
-      <c r="D69" s="2">
-        <v>122</v>
+      <c r="D69" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F69" s="3">
         <v>36434</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H69" s="2">
         <v>4720</v>
@@ -4515,25 +4520,25 @@
         <v>46046</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="K69" s="2">
         <v>1992</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="M69" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N69" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="O69" s="4">
+        <v>134</v>
+      </c>
+      <c r="O69" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="P69" s="4">
         <v>0</v>
-      </c>
-      <c r="P69" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="70" spans="1:16">
@@ -4546,17 +4551,17 @@
       <c r="C70" s="2">
         <v>1992</v>
       </c>
-      <c r="D70" s="2">
-        <v>90</v>
+      <c r="D70" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F70" s="3">
         <v>36434</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H70" s="2">
         <v>4724</v>
@@ -4565,25 +4570,25 @@
         <v>75585</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K70" s="2">
         <v>1992</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="M70" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N70" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="O70" s="4">
+        <v>134</v>
+      </c>
+      <c r="O70" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="P70" s="4">
         <v>0</v>
-      </c>
-      <c r="P70" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="71" spans="1:16">
@@ -4596,17 +4601,17 @@
       <c r="C71" s="2">
         <v>1940</v>
       </c>
-      <c r="D71" s="2">
-        <v>570</v>
+      <c r="D71" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F71" s="3">
         <v>36434</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H71" s="2">
         <v>796</v>
@@ -4621,19 +4626,19 @@
         <v>1940</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="M71" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N71" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="O71" s="4">
+        <v>134</v>
+      </c>
+      <c r="O71" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="P71" s="4">
         <v>0</v>
-      </c>
-      <c r="P71" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="72" spans="1:16">
@@ -4646,17 +4651,17 @@
       <c r="C72" s="2">
         <v>1937</v>
       </c>
-      <c r="D72" s="2">
-        <v>737</v>
+      <c r="D72" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F72" s="3">
         <v>36434</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H72" s="2">
         <v>18058</v>
@@ -4671,19 +4676,19 @@
         <v>1937</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="M72" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N72" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="O72" s="4">
+        <v>134</v>
+      </c>
+      <c r="O72" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="P72" s="4">
         <v>31</v>
-      </c>
-      <c r="P72" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="73" spans="1:16">
@@ -4696,17 +4701,17 @@
       <c r="C73" s="2">
         <v>1940</v>
       </c>
-      <c r="D73" s="2">
-        <v>571</v>
+      <c r="D73" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F73" s="3">
         <v>36465</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H73" s="2">
         <v>796</v>
@@ -4721,19 +4726,19 @@
         <v>1940</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="M73" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N73" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="O73" s="4">
+        <v>134</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="P73" s="4">
         <v>0</v>
-      </c>
-      <c r="P73" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="74" spans="1:16">
@@ -4746,17 +4751,17 @@
       <c r="C74" s="2">
         <v>1937</v>
       </c>
-      <c r="D74" s="2">
-        <v>738</v>
+      <c r="D74" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F74" s="3">
         <v>36465</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H74" s="2">
         <v>18058</v>
@@ -4771,19 +4776,19 @@
         <v>1937</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="M74" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="O74" s="4">
+        <v>134</v>
+      </c>
+      <c r="O74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="P74" s="4">
         <v>0</v>
-      </c>
-      <c r="P74" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="75" spans="1:16">
@@ -4796,17 +4801,17 @@
       <c r="C75" s="2">
         <v>1992</v>
       </c>
-      <c r="D75" s="2">
-        <v>123</v>
+      <c r="D75" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F75" s="3">
         <v>36465</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H75" s="2">
         <v>4720</v>
@@ -4815,25 +4820,25 @@
         <v>46090</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="K75" s="2">
         <v>1992</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N75" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="O75" s="4">
+        <v>134</v>
+      </c>
+      <c r="O75" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="P75" s="4">
         <v>0</v>
-      </c>
-      <c r="P75" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="76" spans="1:16">
@@ -4846,17 +4851,17 @@
       <c r="C76" s="2">
         <v>1992</v>
       </c>
-      <c r="D76" s="2">
-        <v>91</v>
+      <c r="D76" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F76" s="3">
         <v>36465</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H76" s="2">
         <v>4724</v>
@@ -4865,25 +4870,25 @@
         <v>75586</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K76" s="2">
         <v>1992</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N76" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="O76" s="4">
+        <v>134</v>
+      </c>
+      <c r="O76" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="P76" s="4">
         <v>30</v>
-      </c>
-      <c r="P76" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="77" spans="1:16">
@@ -4896,17 +4901,17 @@
       <c r="C77" s="2">
         <v>1996</v>
       </c>
-      <c r="D77" s="2">
-        <v>38</v>
+      <c r="D77" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F77" s="3">
         <v>36495</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H77" s="2">
         <v>5755</v>
@@ -4921,19 +4926,19 @@
         <v>1996</v>
       </c>
       <c r="L77" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="M77" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N77" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="O77" s="4">
+        <v>134</v>
+      </c>
+      <c r="O77" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="P77" s="4">
         <v>31</v>
-      </c>
-      <c r="P77" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="78" spans="1:16">
@@ -4946,17 +4951,17 @@
       <c r="C78" s="2">
         <v>1996</v>
       </c>
-      <c r="D78" s="2">
-        <v>39</v>
+      <c r="D78" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F78" s="3">
         <v>36526</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H78" s="2">
         <v>5755</v>
@@ -4971,19 +4976,19 @@
         <v>1996</v>
       </c>
       <c r="L78" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N78" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="O78" s="4">
-        <v>31</v>
-      </c>
-      <c r="P78" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O78" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="P78" s="4">
+        <v>-31</v>
       </c>
     </row>
     <row r="79" spans="1:16">
@@ -4996,17 +5001,17 @@
       <c r="C79" s="2">
         <v>1992</v>
       </c>
-      <c r="D79" s="2">
-        <v>124</v>
+      <c r="D79" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F79" s="3">
         <v>36495</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H79" s="2">
         <v>4720</v>
@@ -5015,25 +5020,25 @@
         <v>46982</v>
       </c>
       <c r="J79" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="K79" s="2">
         <v>1992</v>
       </c>
       <c r="L79" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N79" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="O79" s="4">
+        <v>134</v>
+      </c>
+      <c r="O79" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="P79" s="4">
         <v>0</v>
-      </c>
-      <c r="P79" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:16">
@@ -5046,17 +5051,17 @@
       <c r="C80" s="2">
         <v>1992</v>
       </c>
-      <c r="D80" s="2">
-        <v>92</v>
+      <c r="D80" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F80" s="3">
         <v>36495</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H80" s="2">
         <v>4724</v>
@@ -5065,25 +5070,25 @@
         <v>75587</v>
       </c>
       <c r="J80" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K80" s="2">
         <v>1992</v>
       </c>
       <c r="L80" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N80" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="O80" s="4">
+        <v>134</v>
+      </c>
+      <c r="O80" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="P80" s="4">
         <v>0</v>
-      </c>
-      <c r="P80" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:16">
@@ -5096,17 +5101,17 @@
       <c r="C81" s="2">
         <v>1940</v>
       </c>
-      <c r="D81" s="2">
-        <v>572</v>
+      <c r="D81" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F81" s="3">
         <v>36495</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H81" s="2">
         <v>796</v>
@@ -5121,19 +5126,19 @@
         <v>1940</v>
       </c>
       <c r="L81" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N81" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="O81" s="4">
+        <v>134</v>
+      </c>
+      <c r="O81" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="P81" s="4">
         <v>0</v>
-      </c>
-      <c r="P81" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:16">
@@ -5146,17 +5151,17 @@
       <c r="C82" s="2">
         <v>1937</v>
       </c>
-      <c r="D82" s="2">
-        <v>739</v>
+      <c r="D82" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F82" s="3">
         <v>36495</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H82" s="2">
         <v>18058</v>
@@ -5171,19 +5176,19 @@
         <v>1937</v>
       </c>
       <c r="L82" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N82" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="O82" s="4">
+        <v>134</v>
+      </c>
+      <c r="O82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P82" s="4">
         <v>31</v>
-      </c>
-      <c r="P82" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="83" spans="1:16">
@@ -5196,17 +5201,17 @@
       <c r="C83" s="2">
         <v>1992</v>
       </c>
-      <c r="D83" s="2">
-        <v>125</v>
+      <c r="D83" s="2" t="s">
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F83" s="3">
         <v>36526</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H83" s="2">
         <v>4720</v>
@@ -5215,25 +5220,25 @@
         <v>46983</v>
       </c>
       <c r="J83" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="K83" s="2">
         <v>1992</v>
       </c>
       <c r="L83" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N83" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="O83" s="4">
-        <v>31</v>
-      </c>
-      <c r="P83" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="P83" s="4">
+        <v>-31</v>
       </c>
     </row>
     <row r="84" spans="1:16">
@@ -5246,17 +5251,17 @@
       <c r="C84" s="2">
         <v>1993</v>
       </c>
-      <c r="D84" s="2">
-        <v>71</v>
+      <c r="D84" s="2" t="s">
+        <v>110</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F84" s="3">
         <v>36495</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H84" s="2">
         <v>4975</v>
@@ -5271,19 +5276,19 @@
         <v>1993</v>
       </c>
       <c r="L84" s="2" t="s">
-        <v>80</v>
+        <v>110</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N84" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="O84" s="4">
+        <v>134</v>
+      </c>
+      <c r="O84" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="P84" s="4">
         <v>31</v>
-      </c>
-      <c r="P84" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="85" spans="1:16">
@@ -5296,17 +5301,17 @@
       <c r="C85" s="2">
         <v>1993</v>
       </c>
-      <c r="D85" s="2">
-        <v>72</v>
+      <c r="D85" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F85" s="3">
         <v>36526</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H85" s="2">
         <v>4975</v>
@@ -5321,19 +5326,19 @@
         <v>1993</v>
       </c>
       <c r="L85" s="2" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="M85" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N85" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="O85" s="4">
-        <v>61</v>
-      </c>
-      <c r="P85" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="P85" s="4">
+        <v>-61</v>
       </c>
     </row>
     <row r="86" spans="1:16">
@@ -5346,17 +5351,17 @@
       <c r="C86" s="2">
         <v>1999</v>
       </c>
-      <c r="D86" s="2">
-        <v>1</v>
+      <c r="D86" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F86" s="3">
         <v>36465</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H86" s="2">
         <v>29754</v>
@@ -5371,19 +5376,19 @@
         <v>1999</v>
       </c>
       <c r="L86" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N86" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="O86" s="4">
+        <v>134</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="P86" s="4">
         <v>92</v>
-      </c>
-      <c r="P86" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="87" spans="1:16">
@@ -5396,17 +5401,17 @@
       <c r="C87" s="2">
         <v>1993</v>
       </c>
-      <c r="D87" s="2">
-        <v>73</v>
+      <c r="D87" s="2" t="s">
+        <v>89</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F87" s="3">
         <v>36557</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H87" s="2">
         <v>4975</v>
@@ -5421,19 +5426,19 @@
         <v>1993</v>
       </c>
       <c r="L87" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N87" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="O87" s="4">
-        <v>62</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="P87" s="4">
+        <v>-62</v>
       </c>
     </row>
     <row r="88" spans="1:16">
@@ -5446,17 +5451,17 @@
       <c r="C88" s="2">
         <v>1999</v>
       </c>
-      <c r="D88" s="2">
-        <v>1</v>
+      <c r="D88" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F88" s="3">
         <v>36495</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H88" s="2">
         <v>33363</v>
@@ -5465,25 +5470,25 @@
         <v>238533</v>
       </c>
       <c r="J88" s="2" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="K88" s="2">
         <v>1999</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="M88" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N88" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="O88" s="4">
+        <v>134</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="P88" s="4">
         <v>30</v>
-      </c>
-      <c r="P88" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="89" spans="1:16">
@@ -5496,17 +5501,17 @@
       <c r="C89" s="2">
         <v>1998</v>
       </c>
-      <c r="D89" s="2">
-        <v>59</v>
+      <c r="D89" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F89" s="3">
         <v>36525</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H89" s="2">
         <v>19721</v>
@@ -5521,19 +5526,19 @@
         <v>1998</v>
       </c>
       <c r="L89" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="M89" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N89" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="O89" s="4">
+        <v>134</v>
+      </c>
+      <c r="O89" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="P89" s="4">
         <v>1</v>
-      </c>
-      <c r="P89" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="90" spans="1:16">
@@ -5546,17 +5551,17 @@
       <c r="C90" s="2">
         <v>1992</v>
       </c>
-      <c r="D90" s="2">
-        <v>93</v>
+      <c r="D90" s="2" t="s">
+        <v>112</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F90" s="3">
         <v>36526</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H90" s="2">
         <v>4724</v>
@@ -5565,25 +5570,25 @@
         <v>75588</v>
       </c>
       <c r="J90" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K90" s="2">
         <v>1992</v>
       </c>
       <c r="L90" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="M90" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N90" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="O90" s="4">
+        <v>134</v>
+      </c>
+      <c r="O90" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="P90" s="4">
         <v>0</v>
-      </c>
-      <c r="P90" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:16">
@@ -5596,17 +5601,17 @@
       <c r="C91" s="2">
         <v>1998</v>
       </c>
-      <c r="D91" s="2">
-        <v>60</v>
+      <c r="D91" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F91" s="3">
         <v>36526</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H91" s="2">
         <v>19721</v>
@@ -5621,19 +5626,19 @@
         <v>1998</v>
       </c>
       <c r="L91" s="2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="M91" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N91" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="O91" s="4">
-        <v>31</v>
-      </c>
-      <c r="P91" s="2" t="s">
-        <v>230</v>
+        <v>134</v>
+      </c>
+      <c r="O91" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="P91" s="4">
+        <v>-31</v>
       </c>
     </row>
     <row r="92" spans="1:16">
@@ -5646,17 +5651,17 @@
       <c r="C92" s="2">
         <v>1999</v>
       </c>
-      <c r="D92" s="5">
-        <v>0</v>
+      <c r="D92" s="2" t="s">
+        <v>114</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F92" s="3">
         <v>36495</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H92" s="2">
         <v>21890</v>
@@ -5665,25 +5670,25 @@
         <v>131872</v>
       </c>
       <c r="J92" s="2" t="s">
-        <v>34</v>
+        <v>127</v>
       </c>
       <c r="K92" s="2">
         <v>1999</v>
       </c>
       <c r="L92" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="M92" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N92" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="O92" s="4">
+        <v>134</v>
+      </c>
+      <c r="O92" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="P92" s="4">
         <v>31</v>
-      </c>
-      <c r="P92" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="93" spans="1:16">
@@ -5696,17 +5701,17 @@
       <c r="C93" s="2">
         <v>1940</v>
       </c>
-      <c r="D93" s="2">
-        <v>573</v>
+      <c r="D93" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F93" s="3">
         <v>36526</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H93" s="2">
         <v>796</v>
@@ -5721,19 +5726,19 @@
         <v>1940</v>
       </c>
       <c r="L93" s="2" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="M93" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N93" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="O93" s="4">
+        <v>134</v>
+      </c>
+      <c r="O93" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="P93" s="4">
         <v>0</v>
-      </c>
-      <c r="P93" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="94" spans="1:16">
@@ -5746,17 +5751,17 @@
       <c r="C94" s="2">
         <v>1937</v>
       </c>
-      <c r="D94" s="2">
-        <v>740</v>
+      <c r="D94" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F94" s="3">
         <v>36526</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H94" s="2">
         <v>18058</v>
@@ -5771,19 +5776,19 @@
         <v>1937</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="M94" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="O94" s="4">
+        <v>134</v>
+      </c>
+      <c r="O94" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="P94" s="4">
         <v>0</v>
-      </c>
-      <c r="P94" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="95" spans="1:16">
@@ -5796,17 +5801,17 @@
       <c r="C95" s="2">
         <v>1993</v>
       </c>
-      <c r="D95" s="2">
-        <v>76</v>
+      <c r="D95" s="2" t="s">
+        <v>117</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F95" s="3">
         <v>36526</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H95" s="2">
         <v>4955</v>
@@ -5821,19 +5826,19 @@
         <v>1993</v>
       </c>
       <c r="L95" s="2" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="M95" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N95" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="O95" s="4">
+        <v>134</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="P95" s="4">
         <v>31</v>
-      </c>
-      <c r="P95" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="96" spans="1:16">
@@ -5846,17 +5851,17 @@
       <c r="C96" s="2">
         <v>1993</v>
       </c>
-      <c r="D96" s="2">
-        <v>77</v>
+      <c r="D96" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F96" s="3">
         <v>36557</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H96" s="2">
         <v>4955</v>
@@ -5871,19 +5876,19 @@
         <v>1993</v>
       </c>
       <c r="L96" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="M96" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N96" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="O96" s="4">
+        <v>134</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="P96" s="4">
         <v>0</v>
-      </c>
-      <c r="P96" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="97" spans="1:16">
@@ -5896,17 +5901,17 @@
       <c r="C97" s="2">
         <v>1992</v>
       </c>
-      <c r="D97" s="2">
-        <v>126</v>
+      <c r="D97" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F97" s="3">
         <v>36557</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H97" s="2">
         <v>4720</v>
@@ -5915,25 +5920,25 @@
         <v>46984</v>
       </c>
       <c r="J97" s="2" t="s">
-        <v>35</v>
+        <v>128</v>
       </c>
       <c r="K97" s="2">
         <v>1992</v>
       </c>
       <c r="L97" s="2" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="M97" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N97" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="O97" s="4">
+        <v>134</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="P97" s="4">
         <v>0</v>
-      </c>
-      <c r="P97" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="98" spans="1:16">
@@ -5946,17 +5951,17 @@
       <c r="C98" s="2">
         <v>1940</v>
       </c>
-      <c r="D98" s="2">
-        <v>574</v>
+      <c r="D98" s="2" t="s">
+        <v>120</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F98" s="3">
         <v>36557</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H98" s="2">
         <v>796</v>
@@ -5971,19 +5976,19 @@
         <v>1940</v>
       </c>
       <c r="L98" s="2" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="M98" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N98" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="O98" s="4">
+        <v>134</v>
+      </c>
+      <c r="O98" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="P98" s="4">
         <v>0</v>
-      </c>
-      <c r="P98" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="99" spans="1:16">
@@ -5996,17 +6001,17 @@
       <c r="C99" s="2">
         <v>1937</v>
       </c>
-      <c r="D99" s="2">
-        <v>741</v>
+      <c r="D99" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F99" s="3">
         <v>36557</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H99" s="2">
         <v>18058</v>
@@ -6021,19 +6026,19 @@
         <v>1937</v>
       </c>
       <c r="L99" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="M99" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N99" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="O99" s="4">
+        <v>134</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="P99" s="4">
         <v>0</v>
-      </c>
-      <c r="P99" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="100" spans="1:16">
@@ -6046,17 +6051,17 @@
       <c r="C100" s="2">
         <v>1998</v>
       </c>
-      <c r="D100" s="2">
-        <v>61</v>
+      <c r="D100" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F100" s="3">
         <v>36557</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H100" s="2">
         <v>19721</v>
@@ -6071,19 +6076,19 @@
         <v>1998</v>
       </c>
       <c r="L100" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="M100" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N100" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="O100" s="4">
+        <v>134</v>
+      </c>
+      <c r="O100" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="P100" s="4">
         <v>0</v>
-      </c>
-      <c r="P100" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="101" spans="1:16">
@@ -6096,17 +6101,17 @@
       <c r="C101" s="2">
         <v>1992</v>
       </c>
-      <c r="D101" s="2">
-        <v>94</v>
+      <c r="D101" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>31</v>
+        <v>124</v>
       </c>
       <c r="F101" s="3">
         <v>36557</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="H101" s="2">
         <v>4724</v>
@@ -6115,129 +6120,129 @@
         <v>75589</v>
       </c>
       <c r="J101" s="2" t="s">
-        <v>33</v>
+        <v>126</v>
       </c>
       <c r="K101" s="2">
         <v>1992</v>
       </c>
       <c r="L101" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="M101" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="N101" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="O101" s="4">
+        <v>134</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="P101" s="4">
         <v>0</v>
-      </c>
-      <c r="P101" s="2" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="N2" r:id="rId1"/>
-    <hyperlink ref="N3" r:id="rId2"/>
-    <hyperlink ref="N4" r:id="rId3"/>
-    <hyperlink ref="N5" r:id="rId4"/>
-    <hyperlink ref="N6" r:id="rId5"/>
-    <hyperlink ref="N7" r:id="rId6"/>
-    <hyperlink ref="N8" r:id="rId7"/>
-    <hyperlink ref="N9" r:id="rId8"/>
-    <hyperlink ref="N10" r:id="rId9"/>
-    <hyperlink ref="N11" r:id="rId10"/>
-    <hyperlink ref="N12" r:id="rId11"/>
-    <hyperlink ref="N13" r:id="rId12"/>
-    <hyperlink ref="N14" r:id="rId13"/>
-    <hyperlink ref="N15" r:id="rId14"/>
-    <hyperlink ref="N16" r:id="rId15"/>
-    <hyperlink ref="N17" r:id="rId16"/>
-    <hyperlink ref="N18" r:id="rId17"/>
-    <hyperlink ref="N19" r:id="rId18"/>
-    <hyperlink ref="N20" r:id="rId19"/>
-    <hyperlink ref="N21" r:id="rId20"/>
-    <hyperlink ref="N22" r:id="rId21"/>
-    <hyperlink ref="N23" r:id="rId22"/>
-    <hyperlink ref="N24" r:id="rId23"/>
-    <hyperlink ref="N25" r:id="rId24"/>
-    <hyperlink ref="N26" r:id="rId25"/>
-    <hyperlink ref="N27" r:id="rId26"/>
-    <hyperlink ref="N28" r:id="rId27"/>
-    <hyperlink ref="N29" r:id="rId28"/>
-    <hyperlink ref="N30" r:id="rId29"/>
-    <hyperlink ref="N31" r:id="rId30"/>
-    <hyperlink ref="N32" r:id="rId31"/>
-    <hyperlink ref="N33" r:id="rId32"/>
-    <hyperlink ref="N34" r:id="rId33"/>
-    <hyperlink ref="N35" r:id="rId34"/>
-    <hyperlink ref="N36" r:id="rId35"/>
-    <hyperlink ref="N37" r:id="rId36"/>
-    <hyperlink ref="N38" r:id="rId37"/>
-    <hyperlink ref="N39" r:id="rId38"/>
-    <hyperlink ref="N40" r:id="rId39"/>
-    <hyperlink ref="N41" r:id="rId40"/>
-    <hyperlink ref="N42" r:id="rId41"/>
-    <hyperlink ref="N43" r:id="rId42"/>
-    <hyperlink ref="N44" r:id="rId43"/>
-    <hyperlink ref="N45" r:id="rId44"/>
-    <hyperlink ref="N46" r:id="rId45"/>
-    <hyperlink ref="N47" r:id="rId46"/>
-    <hyperlink ref="N48" r:id="rId47"/>
-    <hyperlink ref="N49" r:id="rId48"/>
-    <hyperlink ref="N50" r:id="rId49"/>
-    <hyperlink ref="N51" r:id="rId50"/>
-    <hyperlink ref="N52" r:id="rId51"/>
-    <hyperlink ref="N53" r:id="rId52"/>
-    <hyperlink ref="N54" r:id="rId53"/>
-    <hyperlink ref="N55" r:id="rId54"/>
-    <hyperlink ref="N56" r:id="rId55"/>
-    <hyperlink ref="N57" r:id="rId56"/>
-    <hyperlink ref="N58" r:id="rId57"/>
-    <hyperlink ref="N59" r:id="rId58"/>
-    <hyperlink ref="N60" r:id="rId59"/>
-    <hyperlink ref="N61" r:id="rId60"/>
-    <hyperlink ref="N62" r:id="rId61"/>
-    <hyperlink ref="N63" r:id="rId62"/>
-    <hyperlink ref="N64" r:id="rId63"/>
-    <hyperlink ref="N65" r:id="rId64"/>
-    <hyperlink ref="N66" r:id="rId65"/>
-    <hyperlink ref="N67" r:id="rId66"/>
-    <hyperlink ref="N68" r:id="rId67"/>
-    <hyperlink ref="N69" r:id="rId68"/>
-    <hyperlink ref="N70" r:id="rId69"/>
-    <hyperlink ref="N71" r:id="rId70"/>
-    <hyperlink ref="N72" r:id="rId71"/>
-    <hyperlink ref="N73" r:id="rId72"/>
-    <hyperlink ref="N74" r:id="rId73"/>
-    <hyperlink ref="N75" r:id="rId74"/>
-    <hyperlink ref="N76" r:id="rId75"/>
-    <hyperlink ref="N77" r:id="rId76"/>
-    <hyperlink ref="N78" r:id="rId77"/>
-    <hyperlink ref="N79" r:id="rId78"/>
-    <hyperlink ref="N80" r:id="rId79"/>
-    <hyperlink ref="N81" r:id="rId80"/>
-    <hyperlink ref="N82" r:id="rId81"/>
-    <hyperlink ref="N83" r:id="rId82"/>
-    <hyperlink ref="N84" r:id="rId83"/>
-    <hyperlink ref="N85" r:id="rId84"/>
-    <hyperlink ref="N86" r:id="rId85"/>
-    <hyperlink ref="N87" r:id="rId86"/>
-    <hyperlink ref="N88" r:id="rId87"/>
-    <hyperlink ref="N89" r:id="rId88"/>
-    <hyperlink ref="N90" r:id="rId89"/>
-    <hyperlink ref="N91" r:id="rId90"/>
-    <hyperlink ref="N92" r:id="rId91"/>
-    <hyperlink ref="N93" r:id="rId92"/>
-    <hyperlink ref="N94" r:id="rId93"/>
-    <hyperlink ref="N95" r:id="rId94"/>
-    <hyperlink ref="N96" r:id="rId95"/>
-    <hyperlink ref="N97" r:id="rId96"/>
-    <hyperlink ref="N98" r:id="rId97"/>
-    <hyperlink ref="N99" r:id="rId98"/>
-    <hyperlink ref="N100" r:id="rId99"/>
-    <hyperlink ref="N101" r:id="rId100"/>
+    <hyperlink ref="O2" r:id="rId1"/>
+    <hyperlink ref="O3" r:id="rId2"/>
+    <hyperlink ref="O4" r:id="rId3"/>
+    <hyperlink ref="O5" r:id="rId4"/>
+    <hyperlink ref="O6" r:id="rId5"/>
+    <hyperlink ref="O7" r:id="rId6"/>
+    <hyperlink ref="O8" r:id="rId7"/>
+    <hyperlink ref="O9" r:id="rId8"/>
+    <hyperlink ref="O10" r:id="rId9"/>
+    <hyperlink ref="O11" r:id="rId10"/>
+    <hyperlink ref="O12" r:id="rId11"/>
+    <hyperlink ref="O13" r:id="rId12"/>
+    <hyperlink ref="O14" r:id="rId13"/>
+    <hyperlink ref="O15" r:id="rId14"/>
+    <hyperlink ref="O16" r:id="rId15"/>
+    <hyperlink ref="O17" r:id="rId16"/>
+    <hyperlink ref="O18" r:id="rId17"/>
+    <hyperlink ref="O19" r:id="rId18"/>
+    <hyperlink ref="O20" r:id="rId19"/>
+    <hyperlink ref="O21" r:id="rId20"/>
+    <hyperlink ref="O22" r:id="rId21"/>
+    <hyperlink ref="O23" r:id="rId22"/>
+    <hyperlink ref="O24" r:id="rId23"/>
+    <hyperlink ref="O25" r:id="rId24"/>
+    <hyperlink ref="O26" r:id="rId25"/>
+    <hyperlink ref="O27" r:id="rId26"/>
+    <hyperlink ref="O28" r:id="rId27"/>
+    <hyperlink ref="O29" r:id="rId28"/>
+    <hyperlink ref="O30" r:id="rId29"/>
+    <hyperlink ref="O31" r:id="rId30"/>
+    <hyperlink ref="O32" r:id="rId31"/>
+    <hyperlink ref="O33" r:id="rId32"/>
+    <hyperlink ref="O34" r:id="rId33"/>
+    <hyperlink ref="O35" r:id="rId34"/>
+    <hyperlink ref="O36" r:id="rId35"/>
+    <hyperlink ref="O37" r:id="rId36"/>
+    <hyperlink ref="O38" r:id="rId37"/>
+    <hyperlink ref="O39" r:id="rId38"/>
+    <hyperlink ref="O40" r:id="rId39"/>
+    <hyperlink ref="O41" r:id="rId40"/>
+    <hyperlink ref="O42" r:id="rId41"/>
+    <hyperlink ref="O43" r:id="rId42"/>
+    <hyperlink ref="O44" r:id="rId43"/>
+    <hyperlink ref="O45" r:id="rId44"/>
+    <hyperlink ref="O46" r:id="rId45"/>
+    <hyperlink ref="O47" r:id="rId46"/>
+    <hyperlink ref="O48" r:id="rId47"/>
+    <hyperlink ref="O49" r:id="rId48"/>
+    <hyperlink ref="O50" r:id="rId49"/>
+    <hyperlink ref="O51" r:id="rId50"/>
+    <hyperlink ref="O52" r:id="rId51"/>
+    <hyperlink ref="O53" r:id="rId52"/>
+    <hyperlink ref="O54" r:id="rId53"/>
+    <hyperlink ref="O55" r:id="rId54"/>
+    <hyperlink ref="O56" r:id="rId55"/>
+    <hyperlink ref="O57" r:id="rId56"/>
+    <hyperlink ref="O58" r:id="rId57"/>
+    <hyperlink ref="O59" r:id="rId58"/>
+    <hyperlink ref="O60" r:id="rId59"/>
+    <hyperlink ref="O61" r:id="rId60"/>
+    <hyperlink ref="O62" r:id="rId61"/>
+    <hyperlink ref="O63" r:id="rId62"/>
+    <hyperlink ref="O64" r:id="rId63"/>
+    <hyperlink ref="O65" r:id="rId64"/>
+    <hyperlink ref="O66" r:id="rId65"/>
+    <hyperlink ref="O67" r:id="rId66"/>
+    <hyperlink ref="O68" r:id="rId67"/>
+    <hyperlink ref="O69" r:id="rId68"/>
+    <hyperlink ref="O70" r:id="rId69"/>
+    <hyperlink ref="O71" r:id="rId70"/>
+    <hyperlink ref="O72" r:id="rId71"/>
+    <hyperlink ref="O73" r:id="rId72"/>
+    <hyperlink ref="O74" r:id="rId73"/>
+    <hyperlink ref="O75" r:id="rId74"/>
+    <hyperlink ref="O76" r:id="rId75"/>
+    <hyperlink ref="O77" r:id="rId76"/>
+    <hyperlink ref="O78" r:id="rId77"/>
+    <hyperlink ref="O79" r:id="rId78"/>
+    <hyperlink ref="O80" r:id="rId79"/>
+    <hyperlink ref="O81" r:id="rId80"/>
+    <hyperlink ref="O82" r:id="rId81"/>
+    <hyperlink ref="O83" r:id="rId82"/>
+    <hyperlink ref="O84" r:id="rId83"/>
+    <hyperlink ref="O85" r:id="rId84"/>
+    <hyperlink ref="O86" r:id="rId85"/>
+    <hyperlink ref="O87" r:id="rId86"/>
+    <hyperlink ref="O88" r:id="rId87"/>
+    <hyperlink ref="O89" r:id="rId88"/>
+    <hyperlink ref="O90" r:id="rId89"/>
+    <hyperlink ref="O91" r:id="rId90"/>
+    <hyperlink ref="O92" r:id="rId91"/>
+    <hyperlink ref="O93" r:id="rId92"/>
+    <hyperlink ref="O94" r:id="rId93"/>
+    <hyperlink ref="O95" r:id="rId94"/>
+    <hyperlink ref="O96" r:id="rId95"/>
+    <hyperlink ref="O97" r:id="rId96"/>
+    <hyperlink ref="O98" r:id="rId97"/>
+    <hyperlink ref="O99" r:id="rId98"/>
+    <hyperlink ref="O100" r:id="rId99"/>
+    <hyperlink ref="O101" r:id="rId100"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
